--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2824.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2824.xlsx
@@ -354,7 +354,7 @@
         <v>2.439096629726551</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.363912897122027</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2824.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2824.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175196154776359</v>
+        <v>1.035900592803955</v>
       </c>
       <c r="B1">
-        <v>2.439096629726551</v>
+        <v>2.420019626617432</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.133058547973633</v>
       </c>
       <c r="D1">
-        <v>2.363912897122027</v>
+        <v>2.31307315826416</v>
       </c>
       <c r="E1">
-        <v>1.235073804135183</v>
+        <v>1.328786730766296</v>
       </c>
     </row>
   </sheetData>
